--- a/ValueSet-ValueSet-R5-filter-operator-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-filter-operator-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ValueSet-R5-filter-operator-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-filter-operator-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,6 @@
 in FHIR R4.
 The source value set is bound to the following FHIR R5 elements:
 * `CodeSystem.filter.operator` as Required
-* `ValueSet.compose.exclude.filter.op` as Required
 * `ValueSet.compose.include.filter.op` as Required
 Across FHIR versions, the value set has been mapped as:
 * `http://hl7.org/fhir/ValueSet/filter-operator|5.0.0`
